--- a/SPR_Utils/ClickTrainLongTermFigure/ME256/ME256_Recording_Joker.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/ME256/ME256_Recording_Joker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDFF377-ED76-465A-9A81-BBA0521ACFB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E32D91-274B-4A37-ACC5-62EDD18625EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,119 +20,2123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="699">
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
   <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
-    <t>ME256Path</t>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
     <t>F:\ME256\joker\jk20230608\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230608\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230608\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230608\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230608\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230609\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230609\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230609\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230609\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230609\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
   </si>
 </sst>
 </file>
@@ -180,7 +2184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -295,63 +2299,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -634,1041 +2640,1142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" thickBottom="true" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="35.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="12.125" style="4" customWidth="true"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="true"/>
+    <col min="3" max="3" width="37.375" style="1" customWidth="true"/>
+    <col min="4" max="4" width="8.875" style="8" customWidth="true"/>
+    <col min="5" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>637</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>658</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
+        <v>679</v>
       </c>
       <c r="D3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>11</v>
+        <v>638</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>659</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>680</v>
       </c>
       <c r="D4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>12</v>
+        <v>639</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>660</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>681</v>
       </c>
       <c r="D5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="16.9" customHeight="true" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>13</v>
+        <v>640</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>8</v>
+        <v>661</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="D6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>641</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>14</v>
+        <v>662</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>24</v>
+        <v>683</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>10</v>
+        <v>642</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>663</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>684</v>
       </c>
       <c r="D8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>11</v>
+        <v>643</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>664</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>685</v>
       </c>
       <c r="D9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>12</v>
+        <v>644</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>665</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>686</v>
       </c>
       <c r="D10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="16.9" customHeight="true" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>645</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>18</v>
+        <v>666</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>28</v>
+        <v>687</v>
       </c>
       <c r="D11" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
     </row>
-    <row r="202" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
     </row>
-    <row r="204" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
     </row>
-    <row r="205" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
     </row>
-    <row r="206" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
     </row>
-    <row r="222" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
     </row>
-    <row r="223" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
     </row>
-    <row r="225" spans="2:3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" thickBot="true" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
     </row>
-    <row r="243" x14ac:dyDescent="0.3"/>
-    <row r="244" x14ac:dyDescent="0.3"/>
-    <row r="245" x14ac:dyDescent="0.3"/>
-    <row r="246" x14ac:dyDescent="0.3"/>
-    <row r="247" x14ac:dyDescent="0.3"/>
-    <row r="248" x14ac:dyDescent="0.3"/>
-    <row r="249" x14ac:dyDescent="0.3"/>
-    <row r="250" x14ac:dyDescent="0.3"/>
-    <row r="251" x14ac:dyDescent="0.3"/>
-    <row r="252" x14ac:dyDescent="0.3"/>
-    <row r="253" x14ac:dyDescent="0.3"/>
-    <row r="254" x14ac:dyDescent="0.3"/>
-    <row r="255" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/ME256/ME256_Recording_Joker.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/ME256/ME256_Recording_Joker.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E32D91-274B-4A37-ACC5-62EDD18625EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9779375-121D-4584-B99E-C1D93B0352A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="834">
   <si>
     <t>TB_Basic</t>
   </si>
@@ -70,6 +71,96 @@
     <t>TB_Jitter</t>
   </si>
   <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -103,6 +194,96 @@
     <t>F:\ME256\joker\jk20230609\Block-5</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230610\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-6</t>
+  </si>
+  <si>
     <t>RHDPath</t>
   </si>
   <si>
@@ -136,87 +317,554 @@
     <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-6.rhd</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230715\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-1.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-2.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-3.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-4.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-5.rhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\Block-5</t>
+  </si>
+  <si>
     <t>F:\ME256\joker\jk20230610\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-6</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-5</t>
+  </si>
+  <si>
+    <t>RHDPath</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-6.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-5.rhd</t>
+  </si>
+  <si>
+    <t>Exported</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -282,6 +930,81 @@
     <t>TB_Jitter</t>
   </si>
   <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -345,6 +1068,81 @@
     <t>F:\ME256\joker\jk20230612\Block-5</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-6</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-5</t>
+  </si>
+  <si>
     <t>RHDPath</t>
   </si>
   <si>
@@ -408,6 +1206,81 @@
     <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-6.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-5.rhd</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
@@ -474,6 +1347,81 @@
     <t>TB_Jitter</t>
   </si>
   <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -537,6 +1485,81 @@
     <t>F:\ME256\joker\jk20230612\Block-5</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-6</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-5</t>
+  </si>
+  <si>
     <t>RHDPath</t>
   </si>
   <si>
@@ -600,6 +1623,81 @@
     <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-6.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-5.rhd</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
@@ -666,6 +1764,81 @@
     <t>TB_Jitter</t>
   </si>
   <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -729,6 +1902,81 @@
     <t>F:\ME256\joker\jk20230612\Block-5</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-6</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-5</t>
+  </si>
+  <si>
     <t>RHDPath</t>
   </si>
   <si>
@@ -792,6 +2040,81 @@
     <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-6.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-5.rhd</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
@@ -858,6 +2181,81 @@
     <t>TB_Jitter</t>
   </si>
   <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
+    <t>TB_Basic</t>
+  </si>
+  <si>
+    <t>TB_Oscillation</t>
+  </si>
+  <si>
+    <t>TB_BaseICI</t>
+  </si>
+  <si>
+    <t>TB_Ratio</t>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -921,6 +2319,81 @@
     <t>F:\ME256\joker\jk20230612\Block-5</t>
   </si>
   <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-5</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\Block-6</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-1</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-2</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-3</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-4</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\Block-5</t>
+  </si>
+  <si>
     <t>RHDPath</t>
   </si>
   <si>
@@ -984,1156 +2457,79 @@
     <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
   </si>
   <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-5</t>
-  </si>
-  <si>
-    <t>RHDPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-5</t>
-  </si>
-  <si>
-    <t>RHDPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-5</t>
-  </si>
-  <si>
-    <t>RHDPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-5</t>
-  </si>
-  <si>
-    <t>RHDPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-5</t>
-  </si>
-  <si>
-    <t>RHDPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>TB_Basic</t>
-  </si>
-  <si>
-    <t>TB_Oscillation</t>
-  </si>
-  <si>
-    <t>TB_BaseICI</t>
-  </si>
-  <si>
-    <t>TB_Ratio</t>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\Block-5</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-1</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-2</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-3</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-4</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\Block-5</t>
-  </si>
-  <si>
-    <t>RHDPath</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230608\20230608-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230609\20230609-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230610\20230610-5.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-1.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-2.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-3.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-4.rhd</t>
-  </si>
-  <si>
-    <t>F:\ME256\joker\jk20230612\20230612-5.rhd</t>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230615\20230615-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230626\20230626-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-5.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230627\20230627-6.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-1.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-2.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-3.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-4.rhd</t>
+  </si>
+  <si>
+    <t>F:\ME256\joker\jk20230715\20230715-5.rhd</t>
   </si>
   <si>
     <t>Exported</t>
@@ -2640,1142 +3036,1467 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="true" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" thickBottom="true" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" style="4" customWidth="true"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="37.375" style="1" customWidth="true"/>
     <col min="4" max="4" width="8.875" style="8" customWidth="true"/>
-    <col min="5" max="16384" width="8.875" style="4"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>635</v>
+        <v>695</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>656</v>
+        <v>741</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>677</v>
+        <v>787</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="22.95" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>636</v>
+        <v>696</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>678</v>
+        <v>788</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="3" s="2" customFormat="true" ht="22.95" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>679</v>
+        <v>789</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="true" ht="17.4" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>659</v>
+        <v>744</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>680</v>
+        <v>790</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="17.4" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>660</v>
+        <v>745</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>681</v>
+        <v>791</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.9" customHeight="true" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="6" ht="16.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>682</v>
+        <v>792</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="true" ht="22.95" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>683</v>
+        <v>793</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="22.9" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="8" s="2" customFormat="true" ht="22.95" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>684</v>
+        <v>794</v>
       </c>
       <c r="D8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="true" ht="17.4" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>685</v>
+        <v>795</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="17.45" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="true" ht="17.4" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>686</v>
+        <v>796</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="16.9" customHeight="true" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="11" ht="16.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>645</v>
+        <v>705</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>687</v>
+        <v>797</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>667</v>
+        <v>752</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>688</v>
+        <v>798</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>647</v>
+        <v>707</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>668</v>
+        <v>753</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>689</v>
+        <v>799</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>669</v>
+        <v>754</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>690</v>
+        <v>800</v>
       </c>
       <c r="D14" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>670</v>
+        <v>755</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>691</v>
+        <v>801</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="16" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="16" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>671</v>
+        <v>756</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>692</v>
+        <v>802</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>651</v>
+        <v>711</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>693</v>
+        <v>803</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>673</v>
+        <v>758</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>694</v>
+        <v>804</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>653</v>
+        <v>713</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>674</v>
+        <v>759</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>695</v>
+        <v>805</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>696</v>
+        <v>806</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="21" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="21" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>697</v>
+        <v>807</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="146" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="149" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="178" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="179" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="180" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="181" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="189" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="194" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="195" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="197" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="198" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="200" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="201" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
     </row>
-    <row r="202" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="202" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="203" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
     </row>
-    <row r="204" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
     </row>
-    <row r="205" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="205" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
     </row>
-    <row r="206" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="206" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="207" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="208" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="213" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="215" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="217" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="219" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="220" thickBot="true" x14ac:dyDescent="0.3">
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-    </row>
-    <row r="222" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-    </row>
-    <row r="223" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-    </row>
-    <row r="224" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-    </row>
-    <row r="225" thickBot="true" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-    </row>
-    <row r="243" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.3"/>
+    <row r="255" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E952B30B-E701-441F-A2C0-152C6B08A968}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="true"/>
+    <col min="2" max="2" width="39.21875" customWidth="true"/>
+    <col min="3" max="3" width="38.33203125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
